--- a/2023_09_28-HSI_grad_rates/figures.xlsx
+++ b/2023_09_28-HSI_grad_rates/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrestrepo\Documents\github_repos\The-Learning-Curve\2023_09_28-HSI_grad_rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A510B698-8F24-4E76-A471-C4EFEC7ABAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343CA87-EA22-4268-A9DB-49B187B0ADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59E79FCF-03E8-444F-B8A1-8CBED748D50E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>years_since_hsi_des_rev</t>
   </si>
@@ -444,7 +444,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,35 +453,35 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
-        <v>99</v>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -844,7 +844,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/2023_09_28-HSI_grad_rates/figures.xlsx
+++ b/2023_09_28-HSI_grad_rates/figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrestrepo\Documents\github_repos\The-Learning-Curve\2023_09_28-HSI_grad_rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343CA87-EA22-4268-A9DB-49B187B0ADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C4D9A-3B7F-4CE0-B57B-8525F72EFD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59E79FCF-03E8-444F-B8A1-8CBED748D50E}"/>
   </bookViews>
